--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt3-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt3-Fzd7.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt3</t>
+  </si>
+  <si>
+    <t>Fzd7</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt3</t>
-  </si>
-  <si>
-    <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H2">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N2">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O2">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P2">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q2">
-        <v>0.147090126465</v>
+        <v>0.07655905756566668</v>
       </c>
       <c r="R2">
-        <v>1.323811138185</v>
+        <v>0.6890315180910001</v>
       </c>
       <c r="S2">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="T2">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H3">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>33.622946</v>
       </c>
       <c r="O3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q3">
-        <v>1.267013474118</v>
+        <v>0.7638498231108888</v>
       </c>
       <c r="R3">
-        <v>11.403121267062</v>
+        <v>6.874648407998</v>
       </c>
       <c r="S3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="T3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,19 +652,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H4">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N4">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q4">
-        <v>0.6832600164720001</v>
+        <v>0.3379514857895556</v>
       </c>
       <c r="R4">
-        <v>6.149340148248001</v>
+        <v>3.041563372106</v>
       </c>
       <c r="S4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="T4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,19 +714,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H5">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N5">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O5">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P5">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q5">
-        <v>0.43492437378</v>
+        <v>0.336554685446</v>
       </c>
       <c r="R5">
-        <v>3.91431936402</v>
+        <v>3.028992169014</v>
       </c>
       <c r="S5">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="T5">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
     </row>
   </sheetData>
